--- a/public/formats/persons.xlsx
+++ b/public/formats/persons.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21231"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alexnella\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\brayan\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9B3707C-D513-4384-B0B4-721AF4AEEECF}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11535"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -24,10 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
-  <si>
-    <t>CARLOS</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
   <si>
     <t>Número de documento</t>
   </si>
@@ -54,16 +52,39 @@
   </si>
   <si>
     <t>Código documento de identidad</t>
+  </si>
+  <si>
+    <t>PE</t>
+  </si>
+  <si>
+    <t>Los pinos 125</t>
+  </si>
+  <si>
+    <t>embo@gmail.com</t>
+  </si>
+  <si>
+    <t>Empresa SAC</t>
+  </si>
+  <si>
+    <t>Juan Pinedo</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -86,13 +107,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -370,11 +394,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -383,36 +407,40 @@
     <col min="2" max="2" width="21.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="21.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -420,14 +448,47 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>41784439</v>
+        <v>41784438</v>
       </c>
       <c r="C2" t="s">
-        <v>0</v>
+        <v>13</v>
+      </c>
+      <c r="H2" s="1"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>6</v>
+      </c>
+      <c r="B3">
+        <v>20505973522</v>
+      </c>
+      <c r="C3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3">
+        <v>150101</v>
+      </c>
+      <c r="G3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I3">
+        <v>7152233</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="H3" r:id="rId1" xr:uid="{8987C106-4B40-434B-BE72-888F7309254B}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId2"/>
 </worksheet>
 </file>